--- a/Docs/Répartition des tâches.xlsx
+++ b/Docs/Répartition des tâches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoit\Documents\GitHub\Projet_planning_poker\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02FC4711-778B-4BE8-80C2-25C39490B83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F306C5-BC7D-4F15-B812-6E585EA0FA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2304322C-D999-46F5-8333-EC45C352ADBC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Benoit Danglades</t>
   </si>
@@ -49,13 +49,10 @@
     <t>Tâches 1</t>
   </si>
   <si>
-    <t>Création interface connexion</t>
+    <t>Front</t>
   </si>
   <si>
-    <t>Connexion à un serveur en python</t>
-  </si>
-  <si>
-    <t>Création de la base de données</t>
+    <t>BDD+Back</t>
   </si>
 </sst>
 </file>
@@ -456,7 +453,7 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -491,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Répartition des tâches.xlsx
+++ b/Docs/Répartition des tâches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoit\Documents\GitHub\Projet_planning_poker\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F306C5-BC7D-4F15-B812-6E585EA0FA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB5A0C3-57C7-49FA-B3FA-DAA5FDC8DAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2304322C-D999-46F5-8333-EC45C352ADBC}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9552" xr2:uid="{2304322C-D999-46F5-8333-EC45C352ADBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Benoit Danglades</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Front</t>
+  </si>
+  <si>
+    <t>Back</t>
   </si>
   <si>
     <t>BDD+Back</t>
@@ -453,7 +456,7 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">

--- a/Docs/Répartition des tâches.xlsx
+++ b/Docs/Répartition des tâches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoit\Documents\GitHub\Projet_planning_poker\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB5A0C3-57C7-49FA-B3FA-DAA5FDC8DAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9232E30E-18BE-42F2-A10D-5493D8ED301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9552" xr2:uid="{2304322C-D999-46F5-8333-EC45C352ADBC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9552" xr2:uid="{2304322C-D999-46F5-8333-EC45C352ADBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Benoit Danglades</t>
   </si>
@@ -52,20 +52,35 @@
     <t>Front</t>
   </si>
   <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>BDD+Back</t>
+    <t>Tâches 2</t>
+  </si>
+  <si>
+    <t>Back CRUD</t>
+  </si>
+  <si>
+    <t>BDD+Back CRUD</t>
+  </si>
+  <si>
+    <t>BDD+Back Controller</t>
+  </si>
+  <si>
+    <t>Back Server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,54 +468,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C80D7D-920A-4E5B-879D-77087C1D23BF}">
-  <dimension ref="B1:C5"/>
+  <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCE3B8447AB0A3438F3486050E6E42D3" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="aa5d3a9d737549d77c95760bc93a25fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0bf87bb0-206d-4a2b-b597-b01ffb7403b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9604878b8c6ac788354cc4c1cb32c619" ns3:_="">
     <xsd:import namespace="0bf87bb0-206d-4a2b-b597-b01ffb7403b0"/>
@@ -632,15 +670,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -648,6 +677,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95E4B91-F152-458C-9B2D-B5FEBA53B134}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C97728-74AB-4FE4-B84A-81C55EC0E41D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -665,14 +702,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95E4B91-F152-458C-9B2D-B5FEBA53B134}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1961991F-488C-4C7F-85BB-A8C29C285987}">
   <ds:schemaRefs>

--- a/Docs/Répartition des tâches.xlsx
+++ b/Docs/Répartition des tâches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoit\Documents\GitHub\Projet_planning_poker\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9232E30E-18BE-42F2-A10D-5493D8ED301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566A9536-EEA8-4B46-B898-8AD80CEA941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9552" xr2:uid="{2304322C-D999-46F5-8333-EC45C352ADBC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Benoit Danglades</t>
   </si>
@@ -46,15 +46,9 @@
     <t>Massine Merouane</t>
   </si>
   <si>
-    <t>Tâches 1</t>
-  </si>
-  <si>
     <t>Front</t>
   </si>
   <si>
-    <t>Tâches 2</t>
-  </si>
-  <si>
     <t>Back CRUD</t>
   </si>
   <si>
@@ -65,6 +59,24 @@
   </si>
   <si>
     <t>Back Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâches jour 1 </t>
+  </si>
+  <si>
+    <t>Tâches  jour 2</t>
+  </si>
+  <si>
+    <t>Tâches  jour 3</t>
+  </si>
+  <si>
+    <t>Back Controller (partie admin)+Front</t>
+  </si>
+  <si>
+    <t>Back Controller (partie admin)+front</t>
+  </si>
+  <si>
+    <t>Back Controller (partie responsable)+front</t>
   </si>
 </sst>
 </file>
@@ -468,58 +480,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C80D7D-920A-4E5B-879D-77087C1D23BF}">
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="30.77734375" customWidth="1"/>
     <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -530,15 +555,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCE3B8447AB0A3438F3486050E6E42D3" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="aa5d3a9d737549d77c95760bc93a25fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0bf87bb0-206d-4a2b-b597-b01ffb7403b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9604878b8c6ac788354cc4c1cb32c619" ns3:_="">
     <xsd:import namespace="0bf87bb0-206d-4a2b-b597-b01ffb7403b0"/>
@@ -670,6 +686,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -677,14 +702,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95E4B91-F152-458C-9B2D-B5FEBA53B134}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C97728-74AB-4FE4-B84A-81C55EC0E41D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -702,6 +719,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95E4B91-F152-458C-9B2D-B5FEBA53B134}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1961991F-488C-4C7F-85BB-A8C29C285987}">
   <ds:schemaRefs>

--- a/Docs/Répartition des tâches.xlsx
+++ b/Docs/Répartition des tâches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoit\Documents\GitHub\Projet_planning_poker\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566A9536-EEA8-4B46-B898-8AD80CEA941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EAF204-E007-4F60-A359-401E37858979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9552" xr2:uid="{2304322C-D999-46F5-8333-EC45C352ADBC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Benoit Danglades</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>Back Controller (partie responsable)+front</t>
+  </si>
+  <si>
+    <t>Tâches  jour 4</t>
+  </si>
+  <si>
+    <t>Sécurité+Front</t>
+  </si>
+  <si>
+    <t>websocket+heroku</t>
+  </si>
+  <si>
+    <t>partie responsable/sessions+front</t>
   </si>
 </sst>
 </file>
@@ -480,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C80D7D-920A-4E5B-879D-77087C1D23BF}">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,10 +503,11 @@
     <col min="2" max="3" width="30.77734375" customWidth="1"/>
     <col min="4" max="4" width="25.21875" customWidth="1"/>
     <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -504,8 +517,11 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +534,11 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,8 +551,11 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -545,6 +567,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -555,6 +580,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCE3B8447AB0A3438F3486050E6E42D3" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="aa5d3a9d737549d77c95760bc93a25fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0bf87bb0-206d-4a2b-b597-b01ffb7403b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9604878b8c6ac788354cc4c1cb32c619" ns3:_="">
     <xsd:import namespace="0bf87bb0-206d-4a2b-b597-b01ffb7403b0"/>
@@ -686,15 +720,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -702,6 +727,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95E4B91-F152-458C-9B2D-B5FEBA53B134}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C97728-74AB-4FE4-B84A-81C55EC0E41D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -719,14 +752,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95E4B91-F152-458C-9B2D-B5FEBA53B134}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1961991F-488C-4C7F-85BB-A8C29C285987}">
   <ds:schemaRefs>
